--- a/Spine_Projects/03_output_data/03_runs_paper_energy_2024/03_results_comparison/carbonprice.xlsx
+++ b/Spine_Projects/03_output_data/03_runs_paper_energy_2024/03_results_comparison/carbonprice.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/03_output_data/03_runs_paper_energy_2024/03_results_comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_AD4D1D646341095ACB70004CD596C7AE683EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9D37D06-0A9B-4C2C-9087-113FCEEAF3A6}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_AD4D1D646341095ACB70004CD596C7AE683EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EDAC30F-57FE-4EEE-9456-08B337767C0A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="380" windowWidth="19190" windowHeight="11390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Year</t>
   </si>
@@ -37,6 +48,12 @@
   </si>
   <si>
     <t>EUAs</t>
+  </si>
+  <si>
+    <t>Low_test</t>
+  </si>
+  <si>
+    <t>High_test</t>
   </si>
 </sst>
 </file>
@@ -354,15 +371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,8 +392,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -389,8 +412,16 @@
       <c r="D2">
         <v>24.723125</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <f>B2+200</f>
+        <v>1730.44601703023</v>
+      </c>
+      <c r="F2">
+        <f>C2+300</f>
+        <v>1012.979988814538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -403,8 +434,16 @@
       <c r="D3">
         <v>24.386602870000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">B3+200</f>
+        <v>4092.92435357758</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="1">C3+300</f>
+        <v>1255.1492002045461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -417,8 +456,16 @@
       <c r="D4">
         <v>54.151569510000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1773.3550399943499</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>891.78742903975399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -431,8 +478,16 @@
       <c r="D5">
         <v>80.184045449999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>509.05071865661</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>396.43803661325779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -445,8 +500,16 @@
       <c r="D6">
         <v>83.596502240000007</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3341.8592485727199</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1032.5664855567888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2050</v>
       </c>
@@ -458,6 +521,14 @@
       </c>
       <c r="D7">
         <v>221.0376</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>423.73990243902404</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>460.20495983234298</v>
       </c>
     </row>
   </sheetData>
